--- a/notes/Master- Interview.xlsx
+++ b/notes/Master- Interview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Desktop/David/www/leetcode/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidvasquez/Desktop/David/www/leetcode/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB2979-4DA2-084D-A4C7-0B9266C0D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812EB4B1-FC5F-BD42-8E11-B79A7C3438D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{392900BC-6509-0B43-901F-EAAB9318BEC5}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" xr2:uid="{392900BC-6509-0B43-901F-EAAB9318BEC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="465">
   <si>
     <t>Java Language</t>
   </si>
@@ -976,9 +976,6 @@
     <t>OS</t>
   </si>
   <si>
-    <t xml:space="preserve">I do all the time </t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -1646,6 +1643,327 @@
   </si>
   <si>
     <t xml:space="preserve">Each column directly related to primary key and not other columns </t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Constructors</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Multiple inheritance</t>
+  </si>
+  <si>
+    <t>Access modifiers</t>
+  </si>
+  <si>
+    <t>Only public</t>
+  </si>
+  <si>
+    <t>public, protected, etc.</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Can have both abstract and concrete.</t>
+  </si>
+  <si>
+    <t>Abstract Method can be overridden</t>
+  </si>
+  <si>
+    <t>Feature / Aspect</t>
+  </si>
+  <si>
+    <t>Java 10 (Mar 2018)</t>
+  </si>
+  <si>
+    <t>Java 17 (Sept 2021 - LTS)</t>
+  </si>
+  <si>
+    <t>Java 21 (Sept 2023 - LTS)</t>
+  </si>
+  <si>
+    <t>LTS (Long-Term Support)</t>
+  </si>
+  <si>
+    <t>Release Cadence</t>
+  </si>
+  <si>
+    <t>Start of 6-month releases</t>
+  </si>
+  <si>
+    <t>Continuation of 6-month cadence</t>
+  </si>
+  <si>
+    <t>Current LTS in new cadence</t>
+  </si>
+  <si>
+    <t>Local Variable Type Inference</t>
+  </si>
+  <si>
+    <t>Pattern Matching</t>
+  </si>
+  <si>
+    <t>Sealed Classes</t>
+  </si>
+  <si>
+    <t>Text Blocks</t>
+  </si>
+  <si>
+    <t>Switch Expressions</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>Virtual Threads</t>
+  </si>
+  <si>
+    <t>Scoped Values / Structured Concurrency</t>
+  </si>
+  <si>
+    <t>Foreign Function &amp; Memory API</t>
+  </si>
+  <si>
+    <t>Garbage Collection Updates</t>
+  </si>
+  <si>
+    <t>Other Highlights</t>
+  </si>
+  <si>
+    <r>
+      <t>- Local-Variable Type Inference (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>- Application Class-Data Sharing (AppCDS)</t>
+  </si>
+  <si>
+    <t>- Sealed Classes</t>
+  </si>
+  <si>
+    <t>- Strong Encapsulation</t>
+  </si>
+  <si>
+    <t>- JEP 409: Pattern Matching</t>
+  </si>
+  <si>
+    <t>- Virtual Threads</t>
+  </si>
+  <si>
+    <t>- Record Patterns</t>
+  </si>
+  <si>
+    <t>- String Templates</t>
+  </si>
+  <si>
+    <t>- Finalized Pattern Matching</t>
+  </si>
+  <si>
+    <t>Java Version Comparison Table (10, 17, 21)</t>
+  </si>
+  <si>
+    <t>Feature / Version</t>
+  </si>
+  <si>
+    <t>Java 17 (Sep 2021, LTS)</t>
+  </si>
+  <si>
+    <t>Java 21 (Sep 2023, Current LTS)</t>
+  </si>
+  <si>
+    <t>Release Type</t>
+  </si>
+  <si>
+    <t>Feature release</t>
+  </si>
+  <si>
+    <t>Key Feature</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword (local variable type inference)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sealed Classes, Pattern Matching (preview)</t>
+  </si>
+  <si>
+    <t>Virtual Threads (Project Loom)</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Minor improvements</t>
+  </si>
+  <si>
+    <t>Significant GC and JIT enhancements</t>
+  </si>
+  <si>
+    <t>Improved memory management &amp; scalability</t>
+  </si>
+  <si>
+    <t>Project Loom (Threads)</t>
+  </si>
+  <si>
+    <t>ZGC &amp; Shenandoah</t>
+  </si>
+  <si>
+    <t>LTS Status</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>Java 21</t>
+  </si>
+  <si>
+    <t>Switch pattern matching</t>
+  </si>
+  <si>
+    <t>Short Term</t>
+  </si>
+  <si>
+    <t>A little</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virtual Threads for lightweight concurrency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Improved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Production-ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Further optimized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Preview)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> var keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (preview for instanceof)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (with switch, full release)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (preview)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (fully supported)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (standard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fully supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (via Project Loom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New concurrency model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (preview for native interop)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Experimental G1 updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZGC improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Generational ZGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preview for instanceof</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finalized for instanceof, switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduced</t>
+  </si>
+  <si>
+    <t>Does not support multiple inheritance</t>
+  </si>
+  <si>
+    <t>OLD?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only abstract </t>
+  </si>
+  <si>
+    <t>Pass By Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java is strictly pass-by-value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When method is called, the value is passed into the method. The method has its own copy of the data if you change it the original stays the same. </t>
+  </si>
+  <si>
+    <t>Java passes everything by value. If it looks like pass-by-reference, it's because a reference value is being passed.</t>
   </si>
 </sst>
 </file>
@@ -1782,17 +2100,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1804,9 +2116,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1822,15 +2149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1851,9 +2169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1891,7 +2209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1997,7 +2315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2139,7 +2457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2147,646 +2465,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C071B-FEB5-FE49-8D8D-2AEEA55E3458}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="51.33203125" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G2" s="8" t="s">
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G3" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G5" s="8"/>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>228</v>
+      <c r="H8" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6" t="s">
-        <v>227</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>464</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="N19" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H22" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H23" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G15" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G17" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="8" t="s">
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="5"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H32" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="6" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="J33" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="H34" s="5"/>
+      <c r="I34" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H36" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="H39" s="5"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="H40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>102</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>164</v>
-      </c>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>165</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="6" t="s">
+      <c r="D84" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C84" s="6" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="6" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="6" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="22"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" s="16"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="17"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="6"/>
-      <c r="E118" s="6" t="s">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F120" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E119" s="6" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F121" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E120" s="6" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F122" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>184</v>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B138" t="s">
+        <v>371</v>
+      </c>
+      <c r="C138" t="s">
+        <v>440</v>
+      </c>
+      <c r="D138" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B139" t="s">
+        <v>387</v>
+      </c>
+      <c r="C139" t="s">
+        <v>388</v>
+      </c>
+      <c r="D139" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B140" t="s">
+        <v>441</v>
+      </c>
+      <c r="C140" t="s">
+        <v>442</v>
+      </c>
+      <c r="D140" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B141" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B142" t="s">
+        <v>371</v>
+      </c>
+      <c r="C142" t="s">
+        <v>445</v>
+      </c>
+      <c r="D142" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B143" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B144" t="s">
+        <v>371</v>
+      </c>
+      <c r="C144" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B145" t="s">
+        <v>371</v>
+      </c>
+      <c r="C145" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B146" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" t="s">
+        <v>371</v>
+      </c>
+      <c r="D146" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B147" t="s">
+        <v>371</v>
+      </c>
+      <c r="C147" t="s">
+        <v>371</v>
+      </c>
+      <c r="D147" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B148" t="s">
+        <v>371</v>
+      </c>
+      <c r="C148" t="s">
+        <v>371</v>
+      </c>
+      <c r="D148" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B149" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" t="s">
+        <v>453</v>
+      </c>
+      <c r="D149" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A150" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="B150" t="s">
+        <v>401</v>
+      </c>
+      <c r="C150" t="s">
+        <v>403</v>
+      </c>
+      <c r="D150" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="20"/>
+      <c r="B151" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" t="s">
+        <v>404</v>
+      </c>
+      <c r="D151" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="20"/>
+      <c r="C152" t="s">
+        <v>405</v>
+      </c>
+      <c r="D152" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="20"/>
+      <c r="D153" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B160" t="s">
+        <v>415</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C161" t="s">
+        <v>418</v>
+      </c>
+      <c r="D161" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B162" t="s">
+        <v>421</v>
+      </c>
+      <c r="C162" t="s">
+        <v>422</v>
+      </c>
+      <c r="D162" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B163" t="s">
+        <v>371</v>
+      </c>
+      <c r="C163" t="s">
+        <v>371</v>
+      </c>
+      <c r="D163" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B164" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" t="s">
+        <v>455</v>
+      </c>
+      <c r="D164" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B165" t="s">
+        <v>371</v>
+      </c>
+      <c r="C165" t="s">
+        <v>457</v>
+      </c>
+      <c r="D165" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B166" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" t="s">
+        <v>433</v>
+      </c>
+      <c r="D166" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B167" t="s">
+        <v>431</v>
+      </c>
+      <c r="C167" t="s">
+        <v>435</v>
+      </c>
+      <c r="D167" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B168" t="s">
+        <v>371</v>
+      </c>
+      <c r="C168" t="s">
+        <v>371</v>
+      </c>
+      <c r="D168" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B169" t="s">
+        <v>371</v>
+      </c>
+      <c r="C169" t="s">
+        <v>438</v>
+      </c>
+      <c r="D169" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B170" t="s">
+        <v>430</v>
+      </c>
+      <c r="C170">
+        <v>2029</v>
+      </c>
+      <c r="D170">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>223</v>
+      </c>
+      <c r="B174" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>428</v>
+      </c>
+      <c r="B176" t="s">
+        <v>396</v>
+      </c>
+      <c r="C176" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A89:B89"/>
+  <mergeCells count="6">
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A104:C104"/>
     <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A91:B91"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D86" r:id="rId1" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{8506C3F5-5D7D-4F47-A874-B2319670D18E}"/>
-    <hyperlink ref="F121" r:id="rId2" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{11857A33-BD9A-0C40-971B-A58780393BA7}"/>
+    <hyperlink ref="D87" r:id="rId1" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{8506C3F5-5D7D-4F47-A874-B2319670D18E}"/>
+    <hyperlink ref="F122" r:id="rId2" display="https://www.w3schools.com/java/java_inheritance.asp" xr:uid="{11857A33-BD9A-0C40-971B-A58780393BA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2919,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3646611B-9DD2-8849-843B-8DC29BA517F2}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2932,106 +3728,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="25" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="25" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3041,81 +3837,72 @@
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B16" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B17" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="C17" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="40" spans="3:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="C40" s="8" t="s">
+    </row>
+    <row r="40" spans="3:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="C40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="C41" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="3:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="C41" s="8" t="s">
+    <row r="42" spans="3:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="C42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="C42" s="8" t="s">
+    </row>
+    <row r="43" spans="3:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="C43" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="C43" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3139,163 +3926,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3334,110 +4121,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="E2" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D3" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="11" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="D5" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3464,171 +4251,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3661,49 +4448,49 @@
     <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="24"/>
     </row>
     <row r="74" spans="1:2" ht="187" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="7" t="s">
+    <row r="76" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="7" t="s">
+    <row r="77" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="289" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="7" t="s">
+    <row r="78" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="340" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,44 +4530,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3789,85 +4576,85 @@
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3958,27 +4745,27 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="25"/>
       <c r="B38"/>
-      <c r="C38" s="20"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="25"/>
       <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -4018,150 +4805,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
